--- a/spreadsheet/blob_storage_security_checklist.ja.xlsx
+++ b/spreadsheet/blob_storage_security_checklist.ja.xlsx
@@ -2504,7 +2504,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>新しく作成されたストレージ アカウントは、ARM デプロイ モデルを使用して作成されるため、RBAC、監査などが行われます。すべて有効になっています。サブスクリプションにクラシック デプロイ モデルの古いストレージ アカウントがないことを確認する</t>
+          <t>新しく作成されたストレージ アカウントは、ARM デプロイ モデルを使用して作成されるため、RBAC、監査などがすべて有効になります。サブスクリプションにクラシック デプロイ モデルの古いストレージ アカウントがないことを確認する</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
